--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value695.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value695.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6121094791667492</v>
+        <v>1.146793842315674</v>
       </c>
       <c r="B1">
-        <v>0.1707924834907033</v>
+        <v>1.381637692451477</v>
       </c>
       <c r="C1">
-        <v>0.1100302015664716</v>
+        <v>1.853913068771362</v>
       </c>
       <c r="D1">
-        <v>0.09443697675754738</v>
+        <v>3.479630470275879</v>
       </c>
       <c r="E1">
-        <v>0.09178269947632546</v>
+        <v>1.849699378013611</v>
       </c>
     </row>
   </sheetData>
